--- a/extensions/oops-plugin-excel-to-json/excel/RoleLevelUp.xlsx
+++ b/extensions/oops-plugin-excel-to-json/excel/RoleLevelUp.xlsx
@@ -1,33 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\gitee\oops-framework\extensions\oops-plugin-excel-to-json\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720"/>
+    <workbookView windowHeight="17865"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+  <si>
+    <t>编号【KEY】</t>
+  </si>
+  <si>
+    <t>升级所需经验</t>
+  </si>
+  <si>
+    <t>升级增加生命</t>
+  </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>needexp</t>
+  </si>
+  <si>
+    <t>hp</t>
   </si>
   <si>
     <t>int</t>
@@ -36,61 +41,27 @@
     <t>string</t>
   </si>
   <si>
-    <t>client</t>
-  </si>
-  <si>
-    <t>hp</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>serve_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>serve_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>needexp</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级增加生命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级所需经验</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>client</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -99,17 +70,161 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -118,12 +233,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="2" tint="-0.0999786370433668"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -146,9 +447,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -158,30 +701,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -230,7 +817,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -265,7 +852,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -439,86 +1026,81 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="1" ht="16.5" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="16.5" spans="1:3">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="16.5" spans="1:3">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="1:3">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="1:3">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="B5" s="4" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -529,7 +1111,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="5">
         <v>2</v>
       </c>
@@ -540,7 +1122,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="5">
         <v>3</v>
       </c>
@@ -551,7 +1133,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="5">
         <v>4</v>
       </c>
@@ -562,7 +1144,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="5">
         <v>5</v>
       </c>
@@ -573,7 +1155,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="5">
         <v>6</v>
       </c>
@@ -584,7 +1166,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" s="5">
         <v>7</v>
       </c>
@@ -595,7 +1177,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" s="5">
         <v>8</v>
       </c>
@@ -606,7 +1188,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="5">
         <v>9</v>
       </c>
@@ -617,7 +1199,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="5">
         <v>10</v>
       </c>
@@ -628,7 +1210,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="5">
         <v>11</v>
       </c>
@@ -639,7 +1221,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="5">
         <v>12</v>
       </c>
@@ -650,7 +1232,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="5">
         <v>13</v>
       </c>
@@ -661,7 +1243,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="5">
         <v>14</v>
       </c>
@@ -672,7 +1254,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="5">
         <v>15</v>
       </c>
@@ -683,7 +1265,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="5">
         <v>16</v>
       </c>
@@ -694,7 +1276,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="5">
         <v>17</v>
       </c>
@@ -705,7 +1287,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" s="5">
         <v>18</v>
       </c>
@@ -716,7 +1298,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" s="5">
         <v>19</v>
       </c>
@@ -727,7 +1309,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" s="5">
         <v>20</v>
       </c>
@@ -738,7 +1320,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" s="5">
         <v>21</v>
       </c>
@@ -749,7 +1331,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" s="5">
         <v>22</v>
       </c>
@@ -760,7 +1342,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" s="5">
         <v>23</v>
       </c>
@@ -771,7 +1353,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" s="5">
         <v>24</v>
       </c>
@@ -782,7 +1364,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" s="5">
         <v>25</v>
       </c>
@@ -793,7 +1375,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" s="5">
         <v>26</v>
       </c>
@@ -804,7 +1386,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" s="5">
         <v>27</v>
       </c>
@@ -815,7 +1397,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" s="5">
         <v>28</v>
       </c>
@@ -826,7 +1408,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" s="5">
         <v>29</v>
       </c>
@@ -837,7 +1419,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" s="5">
         <v>30</v>
       </c>
@@ -848,7 +1430,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" s="5">
         <v>31</v>
       </c>
@@ -859,7 +1441,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" s="5">
         <v>32</v>
       </c>
@@ -870,7 +1452,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" s="5">
         <v>33</v>
       </c>
@@ -881,7 +1463,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" s="5">
         <v>34</v>
       </c>
@@ -892,7 +1474,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" s="5">
         <v>35</v>
       </c>
@@ -903,7 +1485,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" s="5">
         <v>36</v>
       </c>
@@ -914,7 +1496,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42" s="5">
         <v>37</v>
       </c>
@@ -925,7 +1507,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="A43" s="5">
         <v>38</v>
       </c>
@@ -936,7 +1518,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44" s="5">
         <v>39</v>
       </c>
@@ -947,7 +1529,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="A45" s="5">
         <v>40</v>
       </c>
@@ -958,7 +1540,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="A46" s="5">
         <v>41</v>
       </c>
@@ -969,7 +1551,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3">
       <c r="A47" s="5">
         <v>42</v>
       </c>
@@ -980,7 +1562,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3">
       <c r="A48" s="5">
         <v>43</v>
       </c>
@@ -991,7 +1573,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49" s="5">
         <v>44</v>
       </c>
@@ -1002,7 +1584,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3">
       <c r="A50" s="5">
         <v>45</v>
       </c>
@@ -1013,7 +1595,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3">
       <c r="A51" s="5">
         <v>46</v>
       </c>
@@ -1024,7 +1606,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3">
       <c r="A52" s="5">
         <v>47</v>
       </c>
@@ -1035,7 +1617,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3">
       <c r="A53" s="5">
         <v>48</v>
       </c>
@@ -1046,7 +1628,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3">
       <c r="A54" s="5">
         <v>49</v>
       </c>
@@ -1057,7 +1639,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3">
       <c r="A55" s="5">
         <v>50</v>
       </c>
@@ -1068,7 +1650,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3">
       <c r="A56" s="5">
         <v>51</v>
       </c>
@@ -1079,7 +1661,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3">
       <c r="A57" s="5">
         <v>52</v>
       </c>
@@ -1090,7 +1672,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3">
       <c r="A58" s="5">
         <v>53</v>
       </c>
@@ -1101,7 +1683,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3">
       <c r="A59" s="5">
         <v>54</v>
       </c>
@@ -1112,7 +1694,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3">
       <c r="A60" s="5">
         <v>55</v>
       </c>
@@ -1123,7 +1705,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3">
       <c r="A61" s="5">
         <v>56</v>
       </c>
@@ -1134,7 +1716,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3">
       <c r="A62" s="5">
         <v>57</v>
       </c>
@@ -1145,7 +1727,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3">
       <c r="A63" s="5">
         <v>58</v>
       </c>
@@ -1156,7 +1738,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3">
       <c r="A64" s="5">
         <v>59</v>
       </c>
@@ -1167,7 +1749,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3">
       <c r="A65" s="5">
         <v>60</v>
       </c>
@@ -1178,7 +1760,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3">
       <c r="A66" s="5">
         <v>61</v>
       </c>
@@ -1189,7 +1771,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3">
       <c r="A67" s="5">
         <v>62</v>
       </c>
@@ -1200,7 +1782,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3">
       <c r="A68" s="5">
         <v>63</v>
       </c>
@@ -1211,7 +1793,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3">
       <c r="A69" s="5">
         <v>64</v>
       </c>
@@ -1222,7 +1804,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3">
       <c r="A70" s="5">
         <v>65</v>
       </c>
@@ -1233,7 +1815,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3">
       <c r="A71" s="5">
         <v>66</v>
       </c>
@@ -1244,7 +1826,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3">
       <c r="A72" s="5">
         <v>67</v>
       </c>
@@ -1255,7 +1837,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3">
       <c r="A73" s="5">
         <v>68</v>
       </c>
@@ -1266,7 +1848,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3">
       <c r="A74" s="5">
         <v>69</v>
       </c>
@@ -1277,7 +1859,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3">
       <c r="A75" s="5">
         <v>70</v>
       </c>
@@ -1288,7 +1870,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3">
       <c r="A76" s="5">
         <v>71</v>
       </c>
@@ -1299,7 +1881,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3">
       <c r="A77" s="5">
         <v>72</v>
       </c>
@@ -1310,7 +1892,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3">
       <c r="A78" s="5">
         <v>73</v>
       </c>
@@ -1321,7 +1903,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3">
       <c r="A79" s="5">
         <v>74</v>
       </c>
@@ -1332,7 +1914,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3">
       <c r="A80" s="5">
         <v>75</v>
       </c>
@@ -1343,7 +1925,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3">
       <c r="A81" s="5">
         <v>76</v>
       </c>
@@ -1354,7 +1936,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3">
       <c r="A82" s="5">
         <v>77</v>
       </c>
@@ -1365,7 +1947,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3">
       <c r="A83" s="5">
         <v>78</v>
       </c>
@@ -1376,7 +1958,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3">
       <c r="A84" s="5">
         <v>79</v>
       </c>
@@ -1387,7 +1969,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3">
       <c r="A85" s="5">
         <v>80</v>
       </c>
@@ -1398,7 +1980,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3">
       <c r="A86" s="5">
         <v>81</v>
       </c>
@@ -1409,7 +1991,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3">
       <c r="A87" s="5">
         <v>82</v>
       </c>
@@ -1420,7 +2002,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3">
       <c r="A88" s="5">
         <v>83</v>
       </c>
@@ -1431,7 +2013,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3">
       <c r="A89" s="5">
         <v>84</v>
       </c>
@@ -1442,7 +2024,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3">
       <c r="A90" s="5">
         <v>85</v>
       </c>
@@ -1453,7 +2035,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3">
       <c r="A91" s="5">
         <v>86</v>
       </c>
@@ -1464,7 +2046,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3">
       <c r="A92" s="5">
         <v>87</v>
       </c>
@@ -1475,7 +2057,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3">
       <c r="A93" s="5">
         <v>88</v>
       </c>
@@ -1486,7 +2068,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3">
       <c r="A94" s="5">
         <v>89</v>
       </c>
@@ -1497,7 +2079,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3">
       <c r="A95" s="5">
         <v>90</v>
       </c>
@@ -1508,7 +2090,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3">
       <c r="A96" s="5">
         <v>91</v>
       </c>
@@ -1519,7 +2101,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3">
       <c r="A97" s="5">
         <v>92</v>
       </c>
@@ -1530,7 +2112,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3">
       <c r="A98" s="5">
         <v>93</v>
       </c>
@@ -1541,7 +2123,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3">
       <c r="A99" s="5">
         <v>94</v>
       </c>
@@ -1552,7 +2134,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3">
       <c r="A100" s="5">
         <v>95</v>
       </c>
@@ -1563,7 +2145,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3">
       <c r="A101" s="5">
         <v>96</v>
       </c>
@@ -1574,7 +2156,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3">
       <c r="A102" s="5">
         <v>97</v>
       </c>
@@ -1585,7 +2167,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3">
       <c r="A103" s="5">
         <v>98</v>
       </c>
@@ -1596,7 +2178,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3">
       <c r="A104" s="5">
         <v>99</v>
       </c>
@@ -1607,7 +2189,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3">
       <c r="A105" s="5">
         <v>100</v>
       </c>
@@ -1619,27 +2201,28 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="H2:T101"/>
   <sheetViews>
     <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="M2" sqref="M2:M101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" customWidth="1"/>
+    <col min="19" max="19" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="8:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="8:20">
       <c r="H2">
         <v>1</v>
       </c>
@@ -1675,7 +2258,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="3" spans="8:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="8:16">
       <c r="H3">
         <v>2</v>
       </c>
@@ -1695,14 +2278,14 @@
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O66" si="3">N3/2000</f>
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="P3">
         <f t="shared" si="0"/>
-        <v>4.1666666666666669E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="8:20" x14ac:dyDescent="0.2">
+        <v>0.000416666666666667</v>
+      </c>
+    </row>
+    <row r="4" spans="8:19">
       <c r="H4">
         <v>3</v>
       </c>
@@ -1726,7 +2309,7 @@
       </c>
       <c r="P4">
         <f t="shared" si="0"/>
-        <v>1.6666666666666668E-3</v>
+        <v>0.00166666666666667</v>
       </c>
       <c r="R4">
         <f>SUM(M2:M101)</f>
@@ -1737,7 +2320,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="5" spans="8:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="8:16">
       <c r="H5">
         <v>4</v>
       </c>
@@ -1757,14 +2340,14 @@
       </c>
       <c r="O5">
         <f t="shared" si="3"/>
-        <v>5.5E-2</v>
+        <v>0.055</v>
       </c>
       <c r="P5">
         <f t="shared" si="0"/>
-        <v>4.5833333333333334E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="8:20" x14ac:dyDescent="0.2">
+        <v>0.00458333333333333</v>
+      </c>
+    </row>
+    <row r="6" spans="8:16">
       <c r="H6">
         <v>5</v>
       </c>
@@ -1792,10 +2375,10 @@
       </c>
       <c r="P6">
         <f t="shared" si="0"/>
-        <v>9.1666666666666667E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="8:20" x14ac:dyDescent="0.2">
+        <v>0.00916666666666667</v>
+      </c>
+    </row>
+    <row r="7" spans="12:16">
       <c r="L7">
         <v>6</v>
       </c>
@@ -1809,14 +2392,14 @@
       </c>
       <c r="O7">
         <f t="shared" si="3"/>
-        <v>0.19500000000000001</v>
+        <v>0.195</v>
       </c>
       <c r="P7">
         <f t="shared" si="0"/>
-        <v>1.6250000000000001E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="8:20" x14ac:dyDescent="0.2">
+        <v>0.01625</v>
+      </c>
+    </row>
+    <row r="8" spans="12:16">
       <c r="L8">
         <v>7</v>
       </c>
@@ -1834,10 +2417,10 @@
       </c>
       <c r="P8">
         <f t="shared" si="0"/>
-        <v>2.6249999999999999E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="8:20" x14ac:dyDescent="0.2">
+        <v>0.02625</v>
+      </c>
+    </row>
+    <row r="9" spans="12:16">
       <c r="L9">
         <v>8</v>
       </c>
@@ -1851,14 +2434,14 @@
       </c>
       <c r="O9">
         <f t="shared" si="3"/>
-        <v>0.47499999999999998</v>
+        <v>0.475</v>
       </c>
       <c r="P9">
         <f t="shared" si="0"/>
-        <v>3.9583333333333331E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="8:20" x14ac:dyDescent="0.2">
+        <v>0.0395833333333333</v>
+      </c>
+    </row>
+    <row r="10" spans="12:16">
       <c r="L10">
         <v>9</v>
       </c>
@@ -1872,14 +2455,14 @@
       </c>
       <c r="O10">
         <f t="shared" si="3"/>
-        <v>0.68500000000000005</v>
+        <v>0.685</v>
       </c>
       <c r="P10">
         <f t="shared" si="0"/>
-        <v>5.708333333333334E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="8:20" x14ac:dyDescent="0.2">
+        <v>0.0570833333333333</v>
+      </c>
+    </row>
+    <row r="11" spans="12:16">
       <c r="L11">
         <v>10</v>
       </c>
@@ -1893,14 +2476,14 @@
       </c>
       <c r="O11">
         <f t="shared" si="3"/>
-        <v>0.94499999999999995</v>
+        <v>0.945</v>
       </c>
       <c r="P11">
         <f t="shared" si="0"/>
-        <v>7.8750000000000001E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="8:20" x14ac:dyDescent="0.2">
+        <v>0.07875</v>
+      </c>
+    </row>
+    <row r="12" spans="12:16">
       <c r="L12">
         <v>11</v>
       </c>
@@ -1914,14 +2497,14 @@
       </c>
       <c r="O12">
         <f t="shared" si="3"/>
-        <v>1.2649999999999999</v>
+        <v>1.265</v>
       </c>
       <c r="P12">
         <f t="shared" si="0"/>
-        <v>0.10541666666666666</v>
-      </c>
-    </row>
-    <row r="13" spans="8:20" x14ac:dyDescent="0.2">
+        <v>0.105416666666667</v>
+      </c>
+    </row>
+    <row r="13" spans="12:16">
       <c r="L13">
         <v>12</v>
       </c>
@@ -1939,10 +2522,10 @@
       </c>
       <c r="P13">
         <f t="shared" si="0"/>
-        <v>0.13749999999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="8:20" x14ac:dyDescent="0.2">
+        <v>0.1375</v>
+      </c>
+    </row>
+    <row r="14" spans="12:16">
       <c r="L14">
         <v>13</v>
       </c>
@@ -1960,10 +2543,10 @@
       </c>
       <c r="P14">
         <f t="shared" si="0"/>
-        <v>0.17583333333333331</v>
-      </c>
-    </row>
-    <row r="15" spans="8:20" x14ac:dyDescent="0.2">
+        <v>0.175833333333333</v>
+      </c>
+    </row>
+    <row r="15" spans="12:16">
       <c r="L15">
         <v>14</v>
       </c>
@@ -1981,10 +2564,10 @@
       </c>
       <c r="P15">
         <f t="shared" si="0"/>
-        <v>0.22083333333333333</v>
-      </c>
-    </row>
-    <row r="16" spans="8:20" x14ac:dyDescent="0.2">
+        <v>0.220833333333333</v>
+      </c>
+    </row>
+    <row r="16" spans="12:16">
       <c r="L16">
         <v>15</v>
       </c>
@@ -1998,14 +2581,14 @@
       </c>
       <c r="O16">
         <f t="shared" si="3"/>
-        <v>3.2749999999999999</v>
+        <v>3.275</v>
       </c>
       <c r="P16">
         <f t="shared" si="0"/>
-        <v>0.27291666666666664</v>
-      </c>
-    </row>
-    <row r="17" spans="12:16" x14ac:dyDescent="0.2">
+        <v>0.272916666666667</v>
+      </c>
+    </row>
+    <row r="17" spans="12:16">
       <c r="L17">
         <v>16</v>
       </c>
@@ -2019,14 +2602,14 @@
       </c>
       <c r="O17">
         <f t="shared" si="3"/>
-        <v>3.9950000000000001</v>
+        <v>3.995</v>
       </c>
       <c r="P17">
         <f t="shared" si="0"/>
-        <v>0.33291666666666669</v>
-      </c>
-    </row>
-    <row r="18" spans="12:16" x14ac:dyDescent="0.2">
+        <v>0.332916666666667</v>
+      </c>
+    </row>
+    <row r="18" spans="12:16">
       <c r="L18">
         <v>17</v>
       </c>
@@ -2040,14 +2623,14 @@
       </c>
       <c r="O18">
         <f t="shared" si="3"/>
-        <v>4.8150000000000004</v>
+        <v>4.815</v>
       </c>
       <c r="P18">
         <f t="shared" si="0"/>
-        <v>0.40125000000000005</v>
-      </c>
-    </row>
-    <row r="19" spans="12:16" x14ac:dyDescent="0.2">
+        <v>0.40125</v>
+      </c>
+    </row>
+    <row r="19" spans="12:16">
       <c r="L19">
         <v>18</v>
       </c>
@@ -2061,14 +2644,14 @@
       </c>
       <c r="O19">
         <f t="shared" si="3"/>
-        <v>5.7450000000000001</v>
+        <v>5.745</v>
       </c>
       <c r="P19">
         <f t="shared" si="0"/>
-        <v>0.47875000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="12:16" x14ac:dyDescent="0.2">
+        <v>0.47875</v>
+      </c>
+    </row>
+    <row r="20" spans="12:16">
       <c r="L20">
         <v>19</v>
       </c>
@@ -2086,10 +2669,10 @@
       </c>
       <c r="P20">
         <f t="shared" si="0"/>
-        <v>0.5658333333333333</v>
-      </c>
-    </row>
-    <row r="21" spans="12:16" x14ac:dyDescent="0.2">
+        <v>0.565833333333333</v>
+      </c>
+    </row>
+    <row r="21" spans="12:16">
       <c r="L21">
         <v>20</v>
       </c>
@@ -2103,14 +2686,14 @@
       </c>
       <c r="O21">
         <f t="shared" si="3"/>
-        <v>7.9550000000000001</v>
+        <v>7.955</v>
       </c>
       <c r="P21">
         <f t="shared" si="0"/>
-        <v>0.66291666666666671</v>
-      </c>
-    </row>
-    <row r="22" spans="12:16" x14ac:dyDescent="0.2">
+        <v>0.662916666666667</v>
+      </c>
+    </row>
+    <row r="22" spans="12:16">
       <c r="L22">
         <v>21</v>
       </c>
@@ -2128,10 +2711,10 @@
       </c>
       <c r="P22">
         <f t="shared" si="0"/>
-        <v>0.77083333333333337</v>
-      </c>
-    </row>
-    <row r="23" spans="12:16" x14ac:dyDescent="0.2">
+        <v>0.770833333333333</v>
+      </c>
+    </row>
+    <row r="23" spans="12:16">
       <c r="L23">
         <v>22</v>
       </c>
@@ -2149,10 +2732,10 @@
       </c>
       <c r="P23">
         <f t="shared" si="0"/>
-        <v>0.89041666666666675</v>
-      </c>
-    </row>
-    <row r="24" spans="12:16" x14ac:dyDescent="0.2">
+        <v>0.890416666666667</v>
+      </c>
+    </row>
+    <row r="24" spans="12:16">
       <c r="L24">
         <v>23</v>
       </c>
@@ -2170,10 +2753,10 @@
       </c>
       <c r="P24">
         <f t="shared" si="0"/>
-        <v>1.0216666666666667</v>
-      </c>
-    </row>
-    <row r="25" spans="12:16" x14ac:dyDescent="0.2">
+        <v>1.02166666666667</v>
+      </c>
+    </row>
+    <row r="25" spans="12:16">
       <c r="L25">
         <v>24</v>
       </c>
@@ -2191,10 +2774,10 @@
       </c>
       <c r="P25">
         <f t="shared" si="0"/>
-        <v>1.1658333333333333</v>
-      </c>
-    </row>
-    <row r="26" spans="12:16" x14ac:dyDescent="0.2">
+        <v>1.16583333333333</v>
+      </c>
+    </row>
+    <row r="26" spans="12:16">
       <c r="L26">
         <v>25</v>
       </c>
@@ -2212,10 +2795,10 @@
       </c>
       <c r="P26">
         <f t="shared" si="0"/>
-        <v>1.3229166666666667</v>
-      </c>
-    </row>
-    <row r="27" spans="12:16" x14ac:dyDescent="0.2">
+        <v>1.32291666666667</v>
+      </c>
+    </row>
+    <row r="27" spans="12:16">
       <c r="L27">
         <v>26</v>
       </c>
@@ -2233,10 +2816,10 @@
       </c>
       <c r="P27">
         <f t="shared" si="0"/>
-        <v>1.4941666666666666</v>
-      </c>
-    </row>
-    <row r="28" spans="12:16" x14ac:dyDescent="0.2">
+        <v>1.49416666666667</v>
+      </c>
+    </row>
+    <row r="28" spans="12:16">
       <c r="L28">
         <v>27</v>
       </c>
@@ -2250,14 +2833,14 @@
       </c>
       <c r="O28">
         <f t="shared" si="3"/>
-        <v>20.155000000000001</v>
+        <v>20.155</v>
       </c>
       <c r="P28">
         <f t="shared" si="0"/>
-        <v>1.6795833333333334</v>
-      </c>
-    </row>
-    <row r="29" spans="12:16" x14ac:dyDescent="0.2">
+        <v>1.67958333333333</v>
+      </c>
+    </row>
+    <row r="29" spans="12:16">
       <c r="L29">
         <v>28</v>
       </c>
@@ -2271,14 +2854,14 @@
       </c>
       <c r="O29">
         <f t="shared" si="3"/>
-        <v>22.565000000000001</v>
+        <v>22.565</v>
       </c>
       <c r="P29">
         <f t="shared" si="0"/>
-        <v>1.8804166666666668</v>
-      </c>
-    </row>
-    <row r="30" spans="12:16" x14ac:dyDescent="0.2">
+        <v>1.88041666666667</v>
+      </c>
+    </row>
+    <row r="30" spans="12:16">
       <c r="L30">
         <v>29</v>
       </c>
@@ -2296,10 +2879,10 @@
       </c>
       <c r="P30">
         <f t="shared" si="0"/>
-        <v>2.0966666666666667</v>
-      </c>
-    </row>
-    <row r="31" spans="12:16" x14ac:dyDescent="0.2">
+        <v>2.09666666666667</v>
+      </c>
+    </row>
+    <row r="31" spans="12:16">
       <c r="L31">
         <v>30</v>
       </c>
@@ -2313,14 +2896,14 @@
       </c>
       <c r="O31">
         <f t="shared" si="3"/>
-        <v>27.954999999999998</v>
+        <v>27.955</v>
       </c>
       <c r="P31">
         <f t="shared" si="0"/>
-        <v>2.3295833333333333</v>
-      </c>
-    </row>
-    <row r="32" spans="12:16" x14ac:dyDescent="0.2">
+        <v>2.32958333333333</v>
+      </c>
+    </row>
+    <row r="32" spans="12:16">
       <c r="L32">
         <v>31</v>
       </c>
@@ -2338,10 +2921,10 @@
       </c>
       <c r="P32">
         <f t="shared" si="0"/>
-        <v>2.5791666666666666</v>
-      </c>
-    </row>
-    <row r="33" spans="12:16" x14ac:dyDescent="0.2">
+        <v>2.57916666666667</v>
+      </c>
+    </row>
+    <row r="33" spans="12:16">
       <c r="L33">
         <v>32</v>
       </c>
@@ -2355,14 +2938,14 @@
       </c>
       <c r="O33">
         <f t="shared" si="3"/>
-        <v>34.159999999999997</v>
+        <v>34.16</v>
       </c>
       <c r="P33">
         <f t="shared" si="0"/>
-        <v>2.8466666666666662</v>
-      </c>
-    </row>
-    <row r="34" spans="12:16" x14ac:dyDescent="0.2">
+        <v>2.84666666666667</v>
+      </c>
+    </row>
+    <row r="34" spans="12:16">
       <c r="L34">
         <v>33</v>
       </c>
@@ -2376,14 +2959,14 @@
       </c>
       <c r="O34">
         <f t="shared" si="3"/>
-        <v>37.590000000000003</v>
+        <v>37.59</v>
       </c>
       <c r="P34">
         <f t="shared" ref="P34:P65" si="4">O34/12</f>
-        <v>3.1325000000000003</v>
-      </c>
-    </row>
-    <row r="35" spans="12:16" x14ac:dyDescent="0.2">
+        <v>3.1325</v>
+      </c>
+    </row>
+    <row r="35" spans="12:16">
       <c r="L35">
         <v>34</v>
       </c>
@@ -2397,14 +2980,14 @@
       </c>
       <c r="O35">
         <f t="shared" si="3"/>
-        <v>41.244999999999997</v>
+        <v>41.245</v>
       </c>
       <c r="P35">
         <f t="shared" si="4"/>
-        <v>3.4370833333333333</v>
-      </c>
-    </row>
-    <row r="36" spans="12:16" x14ac:dyDescent="0.2">
+        <v>3.43708333333333</v>
+      </c>
+    </row>
+    <row r="36" spans="12:16">
       <c r="L36">
         <v>35</v>
       </c>
@@ -2418,14 +3001,14 @@
       </c>
       <c r="O36">
         <f t="shared" si="3"/>
-        <v>45.134999999999998</v>
+        <v>45.135</v>
       </c>
       <c r="P36">
         <f t="shared" si="4"/>
         <v>3.76125</v>
       </c>
     </row>
-    <row r="37" spans="12:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="12:16">
       <c r="L37">
         <v>36</v>
       </c>
@@ -2443,10 +3026,10 @@
       </c>
       <c r="P37">
         <f t="shared" si="4"/>
-        <v>4.1058333333333339</v>
-      </c>
-    </row>
-    <row r="38" spans="12:16" x14ac:dyDescent="0.2">
+        <v>4.10583333333333</v>
+      </c>
+    </row>
+    <row r="38" spans="12:16">
       <c r="L38">
         <v>37</v>
       </c>
@@ -2460,14 +3043,14 @@
       </c>
       <c r="O38">
         <f t="shared" si="3"/>
-        <v>53.655000000000001</v>
+        <v>53.655</v>
       </c>
       <c r="P38">
         <f t="shared" si="4"/>
-        <v>4.4712500000000004</v>
-      </c>
-    </row>
-    <row r="39" spans="12:16" x14ac:dyDescent="0.2">
+        <v>4.47125</v>
+      </c>
+    </row>
+    <row r="39" spans="12:16">
       <c r="L39">
         <v>38</v>
       </c>
@@ -2485,10 +3068,10 @@
       </c>
       <c r="P39">
         <f t="shared" si="4"/>
-        <v>4.8583333333333334</v>
-      </c>
-    </row>
-    <row r="40" spans="12:16" x14ac:dyDescent="0.2">
+        <v>4.85833333333333</v>
+      </c>
+    </row>
+    <row r="40" spans="12:16">
       <c r="L40">
         <v>39</v>
       </c>
@@ -2506,10 +3089,10 @@
       </c>
       <c r="P40">
         <f t="shared" si="4"/>
-        <v>5.2675000000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="12:16" x14ac:dyDescent="0.2">
+        <v>5.2675</v>
+      </c>
+    </row>
+    <row r="41" spans="12:16">
       <c r="L41">
         <v>40</v>
       </c>
@@ -2523,14 +3106,14 @@
       </c>
       <c r="O41">
         <f t="shared" si="3"/>
-        <v>68.394999999999996</v>
+        <v>68.395</v>
       </c>
       <c r="P41">
         <f t="shared" si="4"/>
-        <v>5.699583333333333</v>
-      </c>
-    </row>
-    <row r="42" spans="12:16" x14ac:dyDescent="0.2">
+        <v>5.69958333333333</v>
+      </c>
+    </row>
+    <row r="42" spans="12:16">
       <c r="L42">
         <v>41</v>
       </c>
@@ -2544,14 +3127,14 @@
       </c>
       <c r="O42">
         <f t="shared" si="3"/>
-        <v>73.864999999999995</v>
+        <v>73.865</v>
       </c>
       <c r="P42">
         <f t="shared" si="4"/>
-        <v>6.1554166666666665</v>
-      </c>
-    </row>
-    <row r="43" spans="12:16" x14ac:dyDescent="0.2">
+        <v>6.15541666666667</v>
+      </c>
+    </row>
+    <row r="43" spans="12:16">
       <c r="L43">
         <v>42</v>
       </c>
@@ -2569,10 +3152,10 @@
       </c>
       <c r="P43">
         <f t="shared" si="4"/>
-        <v>6.635416666666667</v>
-      </c>
-    </row>
-    <row r="44" spans="12:16" x14ac:dyDescent="0.2">
+        <v>6.63541666666667</v>
+      </c>
+    </row>
+    <row r="44" spans="12:16">
       <c r="L44">
         <v>43</v>
       </c>
@@ -2586,14 +3169,14 @@
       </c>
       <c r="O44">
         <f t="shared" si="3"/>
-        <v>85.685000000000002</v>
+        <v>85.685</v>
       </c>
       <c r="P44">
         <f t="shared" si="4"/>
-        <v>7.1404166666666669</v>
-      </c>
-    </row>
-    <row r="45" spans="12:16" x14ac:dyDescent="0.2">
+        <v>7.14041666666667</v>
+      </c>
+    </row>
+    <row r="45" spans="12:16">
       <c r="L45">
         <v>44</v>
       </c>
@@ -2611,10 +3194,10 @@
       </c>
       <c r="P45">
         <f t="shared" si="4"/>
-        <v>7.6708333333333334</v>
-      </c>
-    </row>
-    <row r="46" spans="12:16" x14ac:dyDescent="0.2">
+        <v>7.67083333333333</v>
+      </c>
+    </row>
+    <row r="46" spans="12:16">
       <c r="L46">
         <v>45</v>
       </c>
@@ -2632,10 +3215,10 @@
       </c>
       <c r="P46">
         <f t="shared" si="4"/>
-        <v>8.2275000000000009</v>
-      </c>
-    </row>
-    <row r="47" spans="12:16" x14ac:dyDescent="0.2">
+        <v>8.2275</v>
+      </c>
+    </row>
+    <row r="47" spans="12:16">
       <c r="L47">
         <v>46</v>
       </c>
@@ -2653,10 +3236,10 @@
       </c>
       <c r="P47">
         <f t="shared" si="4"/>
-        <v>8.8112499999999994</v>
-      </c>
-    </row>
-    <row r="48" spans="12:16" x14ac:dyDescent="0.2">
+        <v>8.81125</v>
+      </c>
+    </row>
+    <row r="48" spans="12:16">
       <c r="L48">
         <v>47</v>
       </c>
@@ -2674,10 +3257,10 @@
       </c>
       <c r="P48">
         <f t="shared" si="4"/>
-        <v>9.4224999999999994</v>
-      </c>
-    </row>
-    <row r="49" spans="12:16" x14ac:dyDescent="0.2">
+        <v>9.4225</v>
+      </c>
+    </row>
+    <row r="49" spans="12:16">
       <c r="L49">
         <v>48</v>
       </c>
@@ -2695,10 +3278,10 @@
       </c>
       <c r="P49">
         <f t="shared" si="4"/>
-        <v>10.062083333333334</v>
-      </c>
-    </row>
-    <row r="50" spans="12:16" x14ac:dyDescent="0.2">
+        <v>10.0620833333333</v>
+      </c>
+    </row>
+    <row r="50" spans="12:16">
       <c r="L50">
         <v>49</v>
       </c>
@@ -2712,14 +3295,14 @@
       </c>
       <c r="O50">
         <f t="shared" si="3"/>
-        <v>128.77000000000001</v>
+        <v>128.77</v>
       </c>
       <c r="P50">
         <f t="shared" si="4"/>
-        <v>10.730833333333335</v>
-      </c>
-    </row>
-    <row r="51" spans="12:16" x14ac:dyDescent="0.2">
+        <v>10.7308333333333</v>
+      </c>
+    </row>
+    <row r="51" spans="12:16">
       <c r="L51">
         <v>50</v>
       </c>
@@ -2737,10 +3320,10 @@
       </c>
       <c r="P51">
         <f t="shared" si="4"/>
-        <v>11.429166666666667</v>
-      </c>
-    </row>
-    <row r="52" spans="12:16" x14ac:dyDescent="0.2">
+        <v>11.4291666666667</v>
+      </c>
+    </row>
+    <row r="52" spans="12:16">
       <c r="L52">
         <v>51</v>
       </c>
@@ -2754,14 +3337,14 @@
       </c>
       <c r="O52">
         <f t="shared" si="3"/>
-        <v>145.89500000000001</v>
+        <v>145.895</v>
       </c>
       <c r="P52">
         <f t="shared" si="4"/>
-        <v>12.157916666666667</v>
-      </c>
-    </row>
-    <row r="53" spans="12:16" x14ac:dyDescent="0.2">
+        <v>12.1579166666667</v>
+      </c>
+    </row>
+    <row r="53" spans="12:16">
       <c r="L53">
         <v>52</v>
       </c>
@@ -2775,14 +3358,14 @@
       </c>
       <c r="O53">
         <f t="shared" si="3"/>
-        <v>155.01499999999999</v>
+        <v>155.015</v>
       </c>
       <c r="P53">
         <f t="shared" si="4"/>
-        <v>12.917916666666665</v>
-      </c>
-    </row>
-    <row r="54" spans="12:16" x14ac:dyDescent="0.2">
+        <v>12.9179166666667</v>
+      </c>
+    </row>
+    <row r="54" spans="12:16">
       <c r="L54">
         <v>53</v>
       </c>
@@ -2796,14 +3379,14 @@
       </c>
       <c r="O54">
         <f t="shared" si="3"/>
-        <v>164.51499999999999</v>
+        <v>164.515</v>
       </c>
       <c r="P54">
         <f t="shared" si="4"/>
-        <v>13.709583333333333</v>
-      </c>
-    </row>
-    <row r="55" spans="12:16" x14ac:dyDescent="0.2">
+        <v>13.7095833333333</v>
+      </c>
+    </row>
+    <row r="55" spans="12:16">
       <c r="L55">
         <v>54</v>
       </c>
@@ -2824,7 +3407,7 @@
         <v>14.53375</v>
       </c>
     </row>
-    <row r="56" spans="12:16" x14ac:dyDescent="0.2">
+    <row r="56" spans="12:16">
       <c r="L56">
         <v>55</v>
       </c>
@@ -2838,14 +3421,14 @@
       </c>
       <c r="O56">
         <f t="shared" si="3"/>
-        <v>184.69499999999999</v>
+        <v>184.695</v>
       </c>
       <c r="P56">
         <f t="shared" si="4"/>
-        <v>15.391249999999999</v>
-      </c>
-    </row>
-    <row r="57" spans="12:16" x14ac:dyDescent="0.2">
+        <v>15.39125</v>
+      </c>
+    </row>
+    <row r="57" spans="12:16">
       <c r="L57">
         <v>56</v>
       </c>
@@ -2863,10 +3446,10 @@
       </c>
       <c r="P57">
         <f t="shared" si="4"/>
-        <v>16.282499999999999</v>
-      </c>
-    </row>
-    <row r="58" spans="12:16" x14ac:dyDescent="0.2">
+        <v>16.2825</v>
+      </c>
+    </row>
+    <row r="58" spans="12:16">
       <c r="L58">
         <v>57</v>
       </c>
@@ -2884,10 +3467,10 @@
       </c>
       <c r="P58">
         <f t="shared" si="4"/>
-        <v>17.208333333333332</v>
-      </c>
-    </row>
-    <row r="59" spans="12:16" x14ac:dyDescent="0.2">
+        <v>17.2083333333333</v>
+      </c>
+    </row>
+    <row r="59" spans="12:16">
       <c r="L59">
         <v>58</v>
       </c>
@@ -2905,10 +3488,10 @@
       </c>
       <c r="P59">
         <f t="shared" si="4"/>
-        <v>18.169583333333332</v>
-      </c>
-    </row>
-    <row r="60" spans="12:16" x14ac:dyDescent="0.2">
+        <v>18.1695833333333</v>
+      </c>
+    </row>
+    <row r="60" spans="12:16">
       <c r="L60">
         <v>59</v>
       </c>
@@ -2926,10 +3509,10 @@
       </c>
       <c r="P60">
         <f t="shared" si="4"/>
-        <v>19.166666666666668</v>
-      </c>
-    </row>
-    <row r="61" spans="12:16" x14ac:dyDescent="0.2">
+        <v>19.1666666666667</v>
+      </c>
+    </row>
+    <row r="61" spans="12:16">
       <c r="L61">
         <v>60</v>
       </c>
@@ -2947,10 +3530,10 @@
       </c>
       <c r="P61">
         <f t="shared" si="4"/>
-        <v>20.200416666666666</v>
-      </c>
-    </row>
-    <row r="62" spans="12:16" x14ac:dyDescent="0.2">
+        <v>20.2004166666667</v>
+      </c>
+    </row>
+    <row r="62" spans="12:16">
       <c r="L62">
         <v>61</v>
       </c>
@@ -2968,10 +3551,10 @@
       </c>
       <c r="P62">
         <f t="shared" si="4"/>
-        <v>21.271666666666665</v>
-      </c>
-    </row>
-    <row r="63" spans="12:16" x14ac:dyDescent="0.2">
+        <v>21.2716666666667</v>
+      </c>
+    </row>
+    <row r="63" spans="12:16">
       <c r="L63">
         <v>62</v>
       </c>
@@ -2989,10 +3572,10 @@
       </c>
       <c r="P63">
         <f t="shared" si="4"/>
-        <v>22.380833333333332</v>
-      </c>
-    </row>
-    <row r="64" spans="12:16" x14ac:dyDescent="0.2">
+        <v>22.3808333333333</v>
+      </c>
+    </row>
+    <row r="64" spans="12:16">
       <c r="L64">
         <v>63</v>
       </c>
@@ -3006,14 +3589,14 @@
       </c>
       <c r="O64">
         <f t="shared" si="3"/>
-        <v>282.35000000000002</v>
+        <v>282.35</v>
       </c>
       <c r="P64">
         <f t="shared" si="4"/>
-        <v>23.529166666666669</v>
-      </c>
-    </row>
-    <row r="65" spans="12:16" x14ac:dyDescent="0.2">
+        <v>23.5291666666667</v>
+      </c>
+    </row>
+    <row r="65" spans="12:16">
       <c r="L65">
         <v>64</v>
       </c>
@@ -3027,14 +3610,14 @@
       </c>
       <c r="O65">
         <f t="shared" si="3"/>
-        <v>296.60000000000002</v>
+        <v>296.6</v>
       </c>
       <c r="P65">
         <f t="shared" si="4"/>
-        <v>24.716666666666669</v>
-      </c>
-    </row>
-    <row r="66" spans="12:16" x14ac:dyDescent="0.2">
+        <v>24.7166666666667</v>
+      </c>
+    </row>
+    <row r="66" spans="12:16">
       <c r="L66">
         <v>65</v>
       </c>
@@ -3048,14 +3631,14 @@
       </c>
       <c r="O66">
         <f t="shared" si="3"/>
-        <v>311.33499999999998</v>
+        <v>311.335</v>
       </c>
       <c r="P66">
         <f t="shared" ref="P66:P97" si="5">O66/12</f>
-        <v>25.94458333333333</v>
-      </c>
-    </row>
-    <row r="67" spans="12:16" x14ac:dyDescent="0.2">
+        <v>25.9445833333333</v>
+      </c>
+    </row>
+    <row r="67" spans="12:16">
       <c r="L67">
         <v>66</v>
       </c>
@@ -3073,10 +3656,10 @@
       </c>
       <c r="P67">
         <f t="shared" si="5"/>
-        <v>27.213333333333335</v>
-      </c>
-    </row>
-    <row r="68" spans="12:16" x14ac:dyDescent="0.2">
+        <v>27.2133333333333</v>
+      </c>
+    </row>
+    <row r="68" spans="12:16">
       <c r="L68">
         <v>67</v>
       </c>
@@ -3094,10 +3677,10 @@
       </c>
       <c r="P68">
         <f t="shared" si="5"/>
-        <v>28.52416666666667</v>
-      </c>
-    </row>
-    <row r="69" spans="12:16" x14ac:dyDescent="0.2">
+        <v>28.5241666666667</v>
+      </c>
+    </row>
+    <row r="69" spans="12:16">
       <c r="L69">
         <v>68</v>
       </c>
@@ -3111,14 +3694,14 @@
       </c>
       <c r="O69">
         <f t="shared" si="8"/>
-        <v>358.52499999999998</v>
+        <v>358.525</v>
       </c>
       <c r="P69">
         <f t="shared" si="5"/>
-        <v>29.877083333333331</v>
-      </c>
-    </row>
-    <row r="70" spans="12:16" x14ac:dyDescent="0.2">
+        <v>29.8770833333333</v>
+      </c>
+    </row>
+    <row r="70" spans="12:16">
       <c r="L70">
         <v>69</v>
       </c>
@@ -3136,10 +3719,10 @@
       </c>
       <c r="P70">
         <f t="shared" si="5"/>
-        <v>31.27333333333333</v>
-      </c>
-    </row>
-    <row r="71" spans="12:16" x14ac:dyDescent="0.2">
+        <v>31.2733333333333</v>
+      </c>
+    </row>
+    <row r="71" spans="12:16">
       <c r="L71">
         <v>70</v>
       </c>
@@ -3157,10 +3740,10 @@
       </c>
       <c r="P71">
         <f t="shared" si="5"/>
-        <v>32.713333333333331</v>
-      </c>
-    </row>
-    <row r="72" spans="12:16" x14ac:dyDescent="0.2">
+        <v>32.7133333333333</v>
+      </c>
+    </row>
+    <row r="72" spans="12:16">
       <c r="L72">
         <v>71</v>
       </c>
@@ -3178,10 +3761,10 @@
       </c>
       <c r="P72">
         <f t="shared" si="5"/>
-        <v>34.197916666666664</v>
-      </c>
-    </row>
-    <row r="73" spans="12:16" x14ac:dyDescent="0.2">
+        <v>34.1979166666667</v>
+      </c>
+    </row>
+    <row r="73" spans="12:16">
       <c r="L73">
         <v>72</v>
       </c>
@@ -3195,14 +3778,14 @@
       </c>
       <c r="O73">
         <f t="shared" si="8"/>
-        <v>428.73500000000001</v>
+        <v>428.735</v>
       </c>
       <c r="P73">
         <f t="shared" si="5"/>
-        <v>35.727916666666665</v>
-      </c>
-    </row>
-    <row r="74" spans="12:16" x14ac:dyDescent="0.2">
+        <v>35.7279166666667</v>
+      </c>
+    </row>
+    <row r="74" spans="12:16">
       <c r="L74">
         <v>73</v>
       </c>
@@ -3220,10 +3803,10 @@
       </c>
       <c r="P74">
         <f t="shared" si="5"/>
-        <v>37.304166666666667</v>
-      </c>
-    </row>
-    <row r="75" spans="12:16" x14ac:dyDescent="0.2">
+        <v>37.3041666666667</v>
+      </c>
+    </row>
+    <row r="75" spans="12:16">
       <c r="L75">
         <v>74</v>
       </c>
@@ -3241,10 +3824,10 @@
       </c>
       <c r="P75">
         <f t="shared" si="5"/>
-        <v>38.927083333333336</v>
-      </c>
-    </row>
-    <row r="76" spans="12:16" x14ac:dyDescent="0.2">
+        <v>38.9270833333333</v>
+      </c>
+    </row>
+    <row r="76" spans="12:16">
       <c r="L76">
         <v>75</v>
       </c>
@@ -3262,10 +3845,10 @@
       </c>
       <c r="P76">
         <f t="shared" si="5"/>
-        <v>40.597500000000004</v>
-      </c>
-    </row>
-    <row r="77" spans="12:16" x14ac:dyDescent="0.2">
+        <v>40.5975</v>
+      </c>
+    </row>
+    <row r="77" spans="12:16">
       <c r="L77">
         <v>76</v>
       </c>
@@ -3279,14 +3862,14 @@
       </c>
       <c r="O77">
         <f t="shared" si="8"/>
-        <v>507.79500000000002</v>
+        <v>507.795</v>
       </c>
       <c r="P77">
         <f t="shared" si="5"/>
-        <v>42.316250000000004</v>
-      </c>
-    </row>
-    <row r="78" spans="12:16" x14ac:dyDescent="0.2">
+        <v>42.31625</v>
+      </c>
+    </row>
+    <row r="78" spans="12:16">
       <c r="L78">
         <v>77</v>
       </c>
@@ -3304,10 +3887,10 @@
       </c>
       <c r="P78">
         <f t="shared" si="5"/>
-        <v>44.083750000000002</v>
-      </c>
-    </row>
-    <row r="79" spans="12:16" x14ac:dyDescent="0.2">
+        <v>44.08375</v>
+      </c>
+    </row>
+    <row r="79" spans="12:16">
       <c r="L79">
         <v>78</v>
       </c>
@@ -3321,14 +3904,14 @@
       </c>
       <c r="O79">
         <f t="shared" si="8"/>
-        <v>550.81500000000005</v>
+        <v>550.815</v>
       </c>
       <c r="P79">
         <f t="shared" si="5"/>
-        <v>45.901250000000005</v>
-      </c>
-    </row>
-    <row r="80" spans="12:16" x14ac:dyDescent="0.2">
+        <v>45.90125</v>
+      </c>
+    </row>
+    <row r="80" spans="12:16">
       <c r="L80">
         <v>79</v>
       </c>
@@ -3346,10 +3929,10 @@
       </c>
       <c r="P80">
         <f t="shared" si="5"/>
-        <v>47.769166666666671</v>
-      </c>
-    </row>
-    <row r="81" spans="12:16" x14ac:dyDescent="0.2">
+        <v>47.7691666666667</v>
+      </c>
+    </row>
+    <row r="81" spans="12:16">
       <c r="L81">
         <v>80</v>
       </c>
@@ -3367,10 +3950,10 @@
       </c>
       <c r="P81">
         <f t="shared" si="5"/>
-        <v>49.688333333333333</v>
-      </c>
-    </row>
-    <row r="82" spans="12:16" x14ac:dyDescent="0.2">
+        <v>49.6883333333333</v>
+      </c>
+    </row>
+    <row r="82" spans="12:16">
       <c r="L82">
         <v>81</v>
       </c>
@@ -3388,10 +3971,10 @@
       </c>
       <c r="P82">
         <f t="shared" si="5"/>
-        <v>51.659166666666664</v>
-      </c>
-    </row>
-    <row r="83" spans="12:16" x14ac:dyDescent="0.2">
+        <v>51.6591666666667</v>
+      </c>
+    </row>
+    <row r="83" spans="12:16">
       <c r="L83">
         <v>82</v>
       </c>
@@ -3405,14 +3988,14 @@
       </c>
       <c r="O83">
         <f t="shared" si="8"/>
-        <v>644.19500000000005</v>
+        <v>644.195</v>
       </c>
       <c r="P83">
         <f t="shared" si="5"/>
-        <v>53.682916666666671</v>
-      </c>
-    </row>
-    <row r="84" spans="12:16" x14ac:dyDescent="0.2">
+        <v>53.6829166666667</v>
+      </c>
+    </row>
+    <row r="84" spans="12:16">
       <c r="L84">
         <v>83</v>
       </c>
@@ -3433,7 +4016,7 @@
         <v>55.76</v>
       </c>
     </row>
-    <row r="85" spans="12:16" x14ac:dyDescent="0.2">
+    <row r="85" spans="12:16">
       <c r="L85">
         <v>84</v>
       </c>
@@ -3447,14 +4030,14 @@
       </c>
       <c r="O85">
         <f t="shared" si="8"/>
-        <v>694.69500000000005</v>
+        <v>694.695</v>
       </c>
       <c r="P85">
         <f t="shared" si="5"/>
-        <v>57.891250000000007</v>
-      </c>
-    </row>
-    <row r="86" spans="12:16" x14ac:dyDescent="0.2">
+        <v>57.89125</v>
+      </c>
+    </row>
+    <row r="86" spans="12:16">
       <c r="L86">
         <v>85</v>
       </c>
@@ -3472,10 +4055,10 @@
       </c>
       <c r="P86">
         <f t="shared" si="5"/>
-        <v>60.077499999999993</v>
-      </c>
-    </row>
-    <row r="87" spans="12:16" x14ac:dyDescent="0.2">
+        <v>60.0775</v>
+      </c>
+    </row>
+    <row r="87" spans="12:16">
       <c r="L87">
         <v>86</v>
       </c>
@@ -3489,14 +4072,14 @@
       </c>
       <c r="O87">
         <f t="shared" si="8"/>
-        <v>747.83500000000004</v>
+        <v>747.835</v>
       </c>
       <c r="P87">
         <f t="shared" si="5"/>
-        <v>62.319583333333334</v>
-      </c>
-    </row>
-    <row r="88" spans="12:16" x14ac:dyDescent="0.2">
+        <v>62.3195833333333</v>
+      </c>
+    </row>
+    <row r="88" spans="12:16">
       <c r="L88">
         <v>87</v>
       </c>
@@ -3510,14 +4093,14 @@
       </c>
       <c r="O88">
         <f t="shared" si="8"/>
-        <v>775.41499999999996</v>
+        <v>775.415</v>
       </c>
       <c r="P88">
         <f t="shared" si="5"/>
-        <v>64.617916666666659</v>
-      </c>
-    </row>
-    <row r="89" spans="12:16" x14ac:dyDescent="0.2">
+        <v>64.6179166666667</v>
+      </c>
+    </row>
+    <row r="89" spans="12:16">
       <c r="L89">
         <v>88</v>
       </c>
@@ -3535,10 +4118,10 @@
       </c>
       <c r="P89">
         <f t="shared" si="5"/>
-        <v>66.973333333333329</v>
-      </c>
-    </row>
-    <row r="90" spans="12:16" x14ac:dyDescent="0.2">
+        <v>66.9733333333333</v>
+      </c>
+    </row>
+    <row r="90" spans="12:16">
       <c r="L90">
         <v>89</v>
       </c>
@@ -3556,10 +4139,10 @@
       </c>
       <c r="P90">
         <f t="shared" si="5"/>
-        <v>69.38666666666667</v>
-      </c>
-    </row>
-    <row r="91" spans="12:16" x14ac:dyDescent="0.2">
+        <v>69.3866666666667</v>
+      </c>
+    </row>
+    <row r="91" spans="12:16">
       <c r="L91">
         <v>90</v>
       </c>
@@ -3573,14 +4156,14 @@
       </c>
       <c r="O91">
         <f t="shared" si="8"/>
-        <v>862.30499999999995</v>
+        <v>862.305</v>
       </c>
       <c r="P91">
         <f t="shared" si="5"/>
-        <v>71.858750000000001</v>
-      </c>
-    </row>
-    <row r="92" spans="12:16" x14ac:dyDescent="0.2">
+        <v>71.85875</v>
+      </c>
+    </row>
+    <row r="92" spans="12:16">
       <c r="L92">
         <v>91</v>
       </c>
@@ -3594,14 +4177,14 @@
       </c>
       <c r="O92">
         <f t="shared" si="8"/>
-        <v>892.68499999999995</v>
+        <v>892.685</v>
       </c>
       <c r="P92">
         <f t="shared" si="5"/>
-        <v>74.390416666666667</v>
-      </c>
-    </row>
-    <row r="93" spans="12:16" x14ac:dyDescent="0.2">
+        <v>74.3904166666667</v>
+      </c>
+    </row>
+    <row r="93" spans="12:16">
       <c r="L93">
         <v>92</v>
       </c>
@@ -3615,14 +4198,14 @@
       </c>
       <c r="O93">
         <f t="shared" si="8"/>
-        <v>923.78499999999997</v>
+        <v>923.785</v>
       </c>
       <c r="P93">
         <f t="shared" si="5"/>
-        <v>76.982083333333335</v>
-      </c>
-    </row>
-    <row r="94" spans="12:16" x14ac:dyDescent="0.2">
+        <v>76.9820833333333</v>
+      </c>
+    </row>
+    <row r="94" spans="12:16">
       <c r="L94">
         <v>93</v>
       </c>
@@ -3640,10 +4223,10 @@
       </c>
       <c r="P94">
         <f t="shared" si="5"/>
-        <v>79.635000000000005</v>
-      </c>
-    </row>
-    <row r="95" spans="12:16" x14ac:dyDescent="0.2">
+        <v>79.635</v>
+      </c>
+    </row>
+    <row r="95" spans="12:16">
       <c r="L95">
         <v>94</v>
       </c>
@@ -3657,14 +4240,14 @@
       </c>
       <c r="O95">
         <f t="shared" si="8"/>
-        <v>988.19500000000005</v>
+        <v>988.195</v>
       </c>
       <c r="P95">
         <f t="shared" si="5"/>
-        <v>82.349583333333342</v>
-      </c>
-    </row>
-    <row r="96" spans="12:16" x14ac:dyDescent="0.2">
+        <v>82.3495833333333</v>
+      </c>
+    </row>
+    <row r="96" spans="12:16">
       <c r="L96">
         <v>95</v>
       </c>
@@ -3682,10 +4265,10 @@
       </c>
       <c r="P96">
         <f t="shared" si="5"/>
-        <v>85.126666666666665</v>
-      </c>
-    </row>
-    <row r="97" spans="12:16" x14ac:dyDescent="0.2">
+        <v>85.1266666666667</v>
+      </c>
+    </row>
+    <row r="97" spans="12:16">
       <c r="L97">
         <v>96</v>
       </c>
@@ -3699,14 +4282,14 @@
       </c>
       <c r="O97">
         <f t="shared" si="8"/>
-        <v>1055.5999999999999</v>
+        <v>1055.6</v>
       </c>
       <c r="P97">
         <f t="shared" si="5"/>
-        <v>87.966666666666654</v>
-      </c>
-    </row>
-    <row r="98" spans="12:16" x14ac:dyDescent="0.2">
+        <v>87.9666666666667</v>
+      </c>
+    </row>
+    <row r="98" spans="12:16">
       <c r="L98">
         <v>97</v>
       </c>
@@ -3724,10 +4307,10 @@
       </c>
       <c r="P98">
         <f t="shared" ref="P98:P101" si="9">O98/12</f>
-        <v>90.870833333333337</v>
-      </c>
-    </row>
-    <row r="99" spans="12:16" x14ac:dyDescent="0.2">
+        <v>90.8708333333333</v>
+      </c>
+    </row>
+    <row r="99" spans="12:16">
       <c r="L99">
         <v>98</v>
       </c>
@@ -3745,10 +4328,10 @@
       </c>
       <c r="P99">
         <f t="shared" si="9"/>
-        <v>93.839583333333337</v>
-      </c>
-    </row>
-    <row r="100" spans="12:16" x14ac:dyDescent="0.2">
+        <v>93.8395833333333</v>
+      </c>
+    </row>
+    <row r="100" spans="12:16">
       <c r="L100">
         <v>99</v>
       </c>
@@ -3766,10 +4349,10 @@
       </c>
       <c r="P100">
         <f t="shared" si="9"/>
-        <v>96.874166666666667</v>
-      </c>
-    </row>
-    <row r="101" spans="12:16" x14ac:dyDescent="0.2">
+        <v>96.8741666666667</v>
+      </c>
+    </row>
+    <row r="101" spans="12:16">
       <c r="L101">
         <v>100</v>
       </c>
@@ -3787,11 +4370,11 @@
       </c>
       <c r="P101">
         <f t="shared" si="9"/>
-        <v>99.975000000000009</v>
+        <v>99.975</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>